--- a/xlsx/Usenet_intext.xlsx
+++ b/xlsx/Usenet_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Usenet</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Usenet</t>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Usenet</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UUCP</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜克大學</t>
+    <t>杜克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%B5%84</t>
   </si>
   <si>
-    <t>新聞組</t>
+    <t>新闻组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>網絡</t>
+    <t>网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>計算機</t>
+    <t>计算机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港中文大學</t>
+    <t>香港中文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google%E5%85%AC%E5%8F%B8</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E7%BB%84</t>
   </si>
   <si>
-    <t>新闻组</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E8%BE%85%E5%8A%A9%E6%B2%9F%E9%80%9A</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>通訊軟體</t>
+    <t>通讯软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BB%B6</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%8D%9A</t>
@@ -998,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1024,10 +1021,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1053,10 +1050,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1082,10 +1079,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1111,10 +1108,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1140,10 +1137,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1169,10 +1166,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1198,10 +1195,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1227,10 +1224,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1256,10 +1253,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1285,10 +1282,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1314,10 +1311,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1343,10 +1340,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1372,10 +1369,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1401,10 +1398,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1430,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1459,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1488,10 +1485,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1517,10 +1514,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1546,10 +1543,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
